--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/REPOs/GM-Dyna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9792320F-CF27-5245-84AE-DB4B3C0FBD64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D70F0-7211-6F4E-A974-1D4CB90037E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{7658EBA5-3667-7A4D-92D0-6956DCC031A5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="233">
   <si>
     <t>d</t>
   </si>
@@ -483,9 +483,6 @@
     <t>OTM-MPM-FEM</t>
   </si>
   <si>
-    <t>Initial step</t>
-  </si>
-  <si>
     <t>Initial conditions</t>
   </si>
   <si>
@@ -727,6 +724,15 @@
   </si>
   <si>
     <t>Second column: number of applied load</t>
+  </si>
+  <si>
+    <t>STEP0</t>
+  </si>
+  <si>
+    <t>Number of the initial step</t>
+  </si>
+  <si>
+    <t>Initial calculations flag</t>
   </si>
 </sst>
 </file>
@@ -786,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -794,20 +800,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1125,10 +1239,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:M42"/>
+  <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1144,914 +1258,947 @@
     <col min="15" max="15" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="12"/>
       <c r="K4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="G32" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="G7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="H33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G34" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" t="s">
-        <v>184</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I40" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="17"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="14" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H41" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="19" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>189</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" t="s">
-        <v>191</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" t="s">
-        <v>192</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="H22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>176</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I25" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" t="s">
-        <v>195</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" t="s">
-        <v>196</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="D30" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I30" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="F31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>200</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="5"/>
-      <c r="D34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>201</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I34" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>202</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="H36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="5"/>
-      <c r="D40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="D41" s="4"/>
-      <c r="F41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" t="s">
-        <v>206</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H42" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="21" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="D42" s="4"/>
-      <c r="F42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G42" t="s">
-        <v>207</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I42" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
